--- a/documentation/Risk-List.xlsx
+++ b/documentation/Risk-List.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26026"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Krystof\Desktop\programming\Annual project 1\Dokumenty\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Krystof\Desktop\programming\Annual project 1\documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C02B2E2C-CEF8-463B-959F-D788E1218CEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5120A3F-D019-474E-94DD-DFB951284D23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="509" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="28">
   <si>
     <t>Risk</t>
   </si>
@@ -97,6 +97,18 @@
   </si>
   <si>
     <t xml:space="preserve">Vybrat technologie které budou adekvátní k zadání, zkusit vytvořit demo aspoň ve dvou technologiích </t>
+  </si>
+  <si>
+    <t>Velikost aplikace</t>
+  </si>
+  <si>
+    <t>Aplikace bude zbytečně velká kvůli metodě UI a její architektury</t>
+  </si>
+  <si>
+    <t>Malý</t>
+  </si>
+  <si>
+    <t>Zvolit architekturu která bude mít přijatelný balanc mezi přesností a velikostí</t>
   </si>
 </sst>
 </file>
@@ -596,8 +608,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -730,12 +742,24 @@
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" s="11"/>
-      <c r="B7" s="2"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
+      <c r="A7" s="11">
+        <v>6</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="11"/>

--- a/documentation/Risk-List.xlsx
+++ b/documentation/Risk-List.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Krystof\Desktop\programming\Annual project 1\documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5120A3F-D019-474E-94DD-DFB951284D23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5A7B689-B4D5-4482-8D5D-E3BEDA890390}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="509" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -609,7 +609,7 @@
   <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -691,8 +691,8 @@
       <c r="C4" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="3" t="s">
-        <v>8</v>
+      <c r="D4" s="4" t="s">
+        <v>9</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>8</v>
@@ -711,8 +711,8 @@
       <c r="C5" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="3" t="s">
-        <v>8</v>
+      <c r="D5" s="4" t="s">
+        <v>9</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>8</v>
